--- a/NDHSITE/NDHSITE/obj/Release/Package/PackageTmp/haiupload/list_order_form.xlsx
+++ b/NDHSITE/NDHSITE/obj/Release/Package/PackageTmp/haiupload/list_order_form.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -61,12 +61,34 @@
   </si>
   <si>
     <t>SỐ LẺ GIAO</t>
+  </si>
+  <si>
+    <t>TT ĐƠN HÀNG</t>
+  </si>
+  <si>
+    <t>TT GIAO HÀNG</t>
+  </si>
+  <si>
+    <t>GIÁ TRỊ ĐƠN HÀNG</t>
+  </si>
+  <si>
+    <t>PHIẾU/KHÔNG PHIẾU</t>
+  </si>
+  <si>
+    <t>LOẠI HÀNG</t>
+  </si>
+  <si>
+    <t>GIÁ TRỊ THỰC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$VND]\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="_([$VND]\ * #,##0_);_([$VND]\ * \(#,##0\);_([$VND]\ * &quot;-&quot;_);_(@_)"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,13 +158,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -446,34 +486,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="27.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="3" customWidth="1"/>
     <col min="4" max="6" width="19.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" style="3" customWidth="1"/>
-    <col min="8" max="9" width="28.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20" style="3" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="21" style="3" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="28.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="3" customWidth="1"/>
+    <col min="10" max="14" width="27.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="36.28515625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20" style="3" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="28.7109375" style="7" customWidth="1"/>
+    <col min="19" max="20" width="21" style="3" customWidth="1"/>
+    <col min="21" max="21" width="30.85546875" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -491,7 +533,7 @@
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -501,19 +543,37 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/NDHSITE/NDHSITE/obj/Release/Package/PackageTmp/haiupload/list_order_form.xlsx
+++ b/NDHSITE/NDHSITE/obj/Release/Package/PackageTmp/haiupload/list_order_form.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>GIÁ TRỊ THỰC</t>
+  </si>
+  <si>
+    <t>CHECKIN</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -185,6 +188,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -508,10 +512,11 @@
     <col min="18" max="18" width="28.7109375" style="7" customWidth="1"/>
     <col min="19" max="20" width="21" style="3" customWidth="1"/>
     <col min="21" max="21" width="30.85546875" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="22" width="20.5703125" style="10" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -574,6 +579,9 @@
       </c>
       <c r="U1" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/NDHSITE/NDHSITE/obj/Release/Package/PackageTmp/haiupload/list_order_form.xlsx
+++ b/NDHSITE/NDHSITE/obj/Release/Package/PackageTmp/haiupload/list_order_form.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>STT</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>CHECKIN</t>
+  </si>
+  <si>
+    <t>CHI NHÁNH</t>
   </si>
 </sst>
 </file>
@@ -490,33 +493,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="19.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" style="3" customWidth="1"/>
-    <col min="10" max="14" width="27.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="36.28515625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="20" style="3" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="28.7109375" style="7" customWidth="1"/>
-    <col min="19" max="20" width="21" style="3" customWidth="1"/>
-    <col min="21" max="21" width="30.85546875" style="5" customWidth="1"/>
-    <col min="22" max="22" width="20.5703125" style="10" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="19.140625" style="3" customWidth="1"/>
+    <col min="5" max="7" width="19.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" style="3" customWidth="1"/>
+    <col min="11" max="15" width="27.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="36.28515625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20" style="3" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="28.7109375" style="7" customWidth="1"/>
+    <col min="20" max="21" width="21" style="3" customWidth="1"/>
+    <col min="22" max="22" width="30.85546875" style="5" customWidth="1"/>
+    <col min="23" max="23" width="20.5703125" style="10" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -527,60 +530,63 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
     </row>

--- a/NDHSITE/NDHSITE/obj/Release/Package/PackageTmp/haiupload/list_order_form.xlsx
+++ b/NDHSITE/NDHSITE/obj/Release/Package/PackageTmp/haiupload/list_order_form.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Project\005HAI\mvc_cskh_hai\NDHSITE\NDHSITE\haiupload\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="4425"/>
   </bookViews>
@@ -30,33 +35,18 @@
     <t>NGÀY ĐẶT</t>
   </si>
   <si>
-    <t>NHÂN VIÊN</t>
-  </si>
-  <si>
-    <t>MÃ NHÂN VIÊN</t>
-  </si>
-  <si>
     <t>MÃ CẤP 2</t>
   </si>
   <si>
     <t>DỰ KIẾN GIAO</t>
   </si>
   <si>
-    <t>CẤP 1</t>
-  </si>
-  <si>
     <t>MÃ CẤP 1</t>
   </si>
   <si>
     <t>TÊN HÀNG</t>
   </si>
   <si>
-    <t>SỐ THÙNG</t>
-  </si>
-  <si>
-    <t>SỐ LẺ</t>
-  </si>
-  <si>
     <t>SỐ THÙNG GIAO</t>
   </si>
   <si>
@@ -84,7 +74,22 @@
     <t>CHECKIN</t>
   </si>
   <si>
-    <t>CHI NHÁNH</t>
+    <t>MÃ CN</t>
+  </si>
+  <si>
+    <t>MÃ NV</t>
+  </si>
+  <si>
+    <t>TÊN NV</t>
+  </si>
+  <si>
+    <t>TÊN CẤP 1</t>
+  </si>
+  <si>
+    <t>SỐ THÙNG ĐẶT</t>
+  </si>
+  <si>
+    <t>SỐ LẺ ĐẶT</t>
   </si>
 </sst>
 </file>
@@ -123,7 +128,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +138,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -176,15 +211,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -192,6 +218,48 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,6 +269,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -249,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,7 +355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,26 +567,29 @@
   <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="27.42578125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="19.140625" style="3" customWidth="1"/>
-    <col min="5" max="7" width="19.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" style="3" customWidth="1"/>
-    <col min="11" max="15" width="27.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="21" customWidth="1"/>
+    <col min="5" max="6" width="19.42578125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="16" customWidth="1"/>
+    <col min="12" max="15" width="27.7109375" style="3" customWidth="1"/>
     <col min="16" max="16" width="36.28515625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="28.7109375" style="7" customWidth="1"/>
-    <col min="20" max="21" width="21" style="3" customWidth="1"/>
-    <col min="22" max="22" width="30.85546875" style="5" customWidth="1"/>
-    <col min="23" max="23" width="20.5703125" style="10" customWidth="1"/>
+    <col min="17" max="17" width="20" style="10" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="28.7109375" style="17" customWidth="1"/>
+    <col min="20" max="21" width="21" style="12" customWidth="1"/>
+    <col min="22" max="22" width="30.85546875" style="19" customWidth="1"/>
+    <col min="23" max="23" width="20.5703125" style="7" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -523,71 +597,71 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="S1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="V1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
